--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/金属产品制造业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/金属产品制造业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.144720812220859</v>
+        <v>0.128694732116616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.048896668420493</v>
+        <v>0.049840977365959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.043617696326585</v>
+        <v>0.049972237724799</v>
       </c>
       <c r="E2" t="n">
-        <v>0.177106860958388</v>
+        <v>0.185702228706966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002718229905731</v>
+        <v>0.003189522558548</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03088631174042</v>
+        <v>0.038290351620081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.083522581114189</v>
+        <v>0.09048245765537501</v>
       </c>
       <c r="I2" t="n">
-        <v>0.314134181989103</v>
+        <v>0.323822152290051</v>
       </c>
       <c r="J2" t="n">
-        <v>0.135341841285904</v>
+        <v>0.125631999673171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.224669652768674</v>
+        <v>0.230562414057375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.034191637180328</v>
+        <v>0.035176681808021</v>
       </c>
       <c r="M2" t="n">
-        <v>0.115077093398961</v>
+        <v>0.125065262892061</v>
       </c>
       <c r="N2" t="n">
-        <v>0.391610168980995</v>
+        <v>0.505572428268388</v>
       </c>
       <c r="O2" t="n">
-        <v>0.757354859116641</v>
+        <v>0.658372910274674</v>
       </c>
       <c r="P2" t="n">
-        <v>0.058056415658932</v>
+        <v>0.06691718073437999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.043306687663933</v>
+        <v>0.059256520200716</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03448641403253</v>
+        <v>0.039497322114487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.128694732116616</v>
+        <v>0.131530040477888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.049840977365959</v>
+        <v>0.049203070198485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.049972237724799</v>
+        <v>0.043156137608685</v>
       </c>
       <c r="E3" t="n">
-        <v>0.185702228706966</v>
+        <v>0.183352125383808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003189522558548</v>
+        <v>0.008470318697307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.038290351620081</v>
+        <v>0.06454438380647599</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09048245765537501</v>
+        <v>0.079373138670537</v>
       </c>
       <c r="I3" t="n">
-        <v>0.323822152290051</v>
+        <v>0.203368300928811</v>
       </c>
       <c r="J3" t="n">
-        <v>0.125631999673171</v>
+        <v>0.126663125894933</v>
       </c>
       <c r="K3" t="n">
-        <v>0.230562414057375</v>
+        <v>0.18437381325259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.035176681808021</v>
+        <v>0.030892447228378</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125065262892061</v>
+        <v>0.107876127331319</v>
       </c>
       <c r="N3" t="n">
-        <v>0.505572428268388</v>
+        <v>0.448619472969123</v>
       </c>
       <c r="O3" t="n">
-        <v>0.658372910274674</v>
+        <v>0.752444677387568</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06691718073437999</v>
+        <v>0.110966734576798</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.059256520200716</v>
+        <v>0.04546307363295</v>
       </c>
       <c r="R3" t="n">
-        <v>0.039497322114487</v>
+        <v>0.039610750792539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.131530040477888</v>
+        <v>0.129949426587128</v>
       </c>
       <c r="C4" t="n">
-        <v>0.049203070198485</v>
+        <v>0.069589426611816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.043156137608685</v>
+        <v>0.063912193961617</v>
       </c>
       <c r="E4" t="n">
-        <v>0.183352125383808</v>
+        <v>0.221240695340272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008470318697307</v>
+        <v>0.010978565038838</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06454438380647599</v>
+        <v>0.110460895607351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.079373138670537</v>
+        <v>0.121643864372144</v>
       </c>
       <c r="I4" t="n">
-        <v>0.203368300928811</v>
+        <v>0.282585649401225</v>
       </c>
       <c r="J4" t="n">
-        <v>0.126663125894933</v>
+        <v>0.121065156477898</v>
       </c>
       <c r="K4" t="n">
-        <v>0.18437381325259</v>
+        <v>0.240456369669734</v>
       </c>
       <c r="L4" t="n">
-        <v>0.030892447228378</v>
+        <v>0.043969794276931</v>
       </c>
       <c r="M4" t="n">
-        <v>0.107876127331319</v>
+        <v>0.144634806950155</v>
       </c>
       <c r="N4" t="n">
-        <v>0.448619472969123</v>
+        <v>0.381267747151383</v>
       </c>
       <c r="O4" t="n">
-        <v>0.752444677387568</v>
+        <v>0.739706399487319</v>
       </c>
       <c r="P4" t="n">
-        <v>0.110966734576798</v>
+        <v>0.157839683841801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04546307363295</v>
+        <v>0.056429760540423</v>
       </c>
       <c r="R4" t="n">
-        <v>0.039610750792539</v>
+        <v>0.067030165264942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.129949426587128</v>
+        <v>0.070355633300912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.069589426611816</v>
+        <v>0.09965163387417</v>
       </c>
       <c r="D5" t="n">
-        <v>0.063912193961617</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.221240695340272</v>
-      </c>
+        <v>0.03152209009547</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.010978565038838</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.110460895607351</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.121643864372144</v>
-      </c>
+        <v>0.002468125037155</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.282585649401225</v>
+        <v>0.173811708783628</v>
       </c>
       <c r="J5" t="n">
-        <v>0.121065156477898</v>
+        <v>0.237919723633475</v>
       </c>
       <c r="K5" t="n">
-        <v>0.240456369669734</v>
+        <v>0.153479916555598</v>
       </c>
       <c r="L5" t="n">
-        <v>0.043969794276931</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.144634806950155</v>
-      </c>
+        <v>0.023133088533755</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.381267747151383</v>
+        <v>0.332911708976161</v>
       </c>
       <c r="O5" t="n">
-        <v>0.739706399487319</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.157839683841801</v>
-      </c>
+        <v>0.5670898071406399</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.056429760540423</v>
+        <v>0.035389391070745</v>
       </c>
       <c r="R5" t="n">
-        <v>0.067030165264942</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.070355633300912</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09965163387417</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03152209009547</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.002468125037155</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.173811708783628</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.237919723633475</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.153479916555598</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.023133088533755</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.332911708976161</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5670898071406399</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.035389391070745</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.035662470572245</v>
       </c>
     </row>
